--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="13905" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name=" product" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>index</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>fish</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>м</t>
   </si>
 </sst>
 </file>
@@ -481,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,83 +509,119 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
-        <f>C2*D2</f>
+      <c r="F2" s="6">
+        <f>D2*E2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>35</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E6" si="0">C3*D3</f>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>10000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
